--- a/UiPathShoppingListForm.xlsx
+++ b/UiPathShoppingListForm.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -211,6 +211,9 @@
   </x:si>
   <x:si>
     <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1Pkt</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1012,6 +1015,47 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K11" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
